--- a/biology/Histoire de la zoologie et de la botanique/Björn_Kurtén/Björn_Kurtén.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Björn_Kurtén/Björn_Kurtén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Kurt%C3%A9n</t>
+          <t>Björn_Kurtén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Björn Olof Lennartson Kurtén, né à Vaasa le 19 novembre 1924 et mort à Helsinki le 28 décembre 1988, était un paléontologue et romancier finlandais de langue suédoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Kurt%C3%A9n</t>
+          <t>Björn_Kurtén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Björn Kurtén est le fils du banquier Lennart Kurtén et de Hjördis Ståhlberg. Il s'est marié en 1950 avec Ruth Margareta Nordman avec qui il eut quatre enfants.
 Björn Kurtén entra comme assistant au département de géologie de l'Université d'Helsinki en 1953. Il y devint ensuite maître de conférences de 1955 à 1972, puis professeur de 1972 jusqu'à sa mort. Il fut également chercheur à l'université de Floride et enseigna à l'université Harvard en 1971.
 Björn Kurtén est l'auteur d'une cinquantaine de publications scientifiques consacrées aux animaux fossiles du Pléistocène et à leur évolution. Il s'est ainsi beaucoup intéressé à l'ours des cavernes dont il était considéré comme un des plus éminents spécialistes. Avec le paléontologue George Gaylord Simpson, il est aussi à l'origine d'un rapprochement entre la théorie de l'évolution de Charles Darwin et l'étude empirique des fossiles de vertébrés. Björn Kurtén est aussi l'auteur d'ouvrages de vulgarisation scientifique qui lui ont valu plusieurs récompenses (dont le prix Kalinga de l'UNESCO en 1988). Certains de ces ouvrages de vulgarisation ont fait l'objet de traductions en plusieurs langues.
 Dans les années 1980, Björn Kurtén a également collaboré à une série télévisée de six épisodes sur L’Âge de glace, coproduite par plusieurs chaînes de télévision scandinaves.
-En dehors de ses ouvrages scientifiques, Björn Kurtén est aussi l'auteur d'une œuvre romanesque inspirée de ses travaux. Plusieurs de ses romans, dont Dance of the Tiger, évoquent la rencontre de l'homme moderne et de l'homme de Néandertal. Quand on lui demandait à quel genre appartenait de tels ouvrages, Björn Kurtén répondait par un terme qu’il avait inventé: la paléofiction[1]. Ce genre a ensuite été popularisé par Jean Auel dans sa série de livres, Les Enfants de la Terre.
+En dehors de ses ouvrages scientifiques, Björn Kurtén est aussi l'auteur d'une œuvre romanesque inspirée de ses travaux. Plusieurs de ses romans, dont Dance of the Tiger, évoquent la rencontre de l'homme moderne et de l'homme de Néandertal. Quand on lui demandait à quel genre appartenait de tels ouvrages, Björn Kurtén répondait par un terme qu’il avait inventé: la paléofiction. Ce genre a ensuite été popularisé par Jean Auel dans sa série de livres, Les Enfants de la Terre.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bj%C3%B6rn_Kurt%C3%A9n</t>
+          <t>Björn_Kurtén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,23 +562,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Det nya jaktplanet, Schildt, 1941
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Det nya jaktplanet, Schildt, 1941
 Spåret från Ultima Esperanza, Förlaget Bro, 1945
 De tre korsen, Schildt, 1948
 Dance of the Tiger  (ISBN 0-520-20277-5) (titre original: Den svarta tigern, Alba, 1978)
 63 förstenade hjärtan, Alba, 1980
-Singletusk  (ISBN 0-394-55352-7) (titre original: Mammutens rådare, Alba, 1984)
-Principaux ouvrages de vulgarisation
-Istidens djurvärld, Alba/Bonnier, 1964
+Singletusk  (ISBN 0-394-55352-7) (titre original: Mammutens rådare, Alba, 1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Björn_Kurtén</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bj%C3%B6rn_Kurt%C3%A9n</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux ouvrages de vulgarisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Istidens djurvärld, Alba/Bonnier, 1964
 Dinosaurernas värld, Aldus/Bonnier, 1968
 Istiden, Forum, 1969
 Not from the apes  (ISBN 0-231-05815-2) (titre original: Inte från aporna, Söderströms, 1971)
 The cave bear story  (ISBN 0-231-10361-1) (titre original: Björnen från Drakhålan, Aldus, 1975)
 How to deep-freeze a mammoth  (ISBN 0-231-05978-7) (titre original: Hur man fryser in en mammut, Alba, 1981)
-The innocent assassins  (ISBN 0-231-07276-7) (titre original: De skuldlösa mördarna, Alba, 1987)
-Autres publications scientifiques
-On the articulation between the thoracic tergites of some common trilobite forms, Societas Scientiarum Fennica, 1949
+The innocent assassins  (ISBN 0-231-07276-7) (titre original: De skuldlösa mördarna, Alba, 1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Björn_Kurtén</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bj%C3%B6rn_Kurt%C3%A9n</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On the articulation between the thoracic tergites of some common trilobite forms, Societas Scientiarum Fennica, 1949
 The Chinese Hipparion fauna, 1952
 Age groups in fossil mammals, Societas Scientiarum Fennica, 1953
 On the variation and population dynamics of fossil and recent mammal populations, Societas pro fauna et flora Fennica, 1953
@@ -616,31 +703,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bj%C3%B6rn_Kurt%C3%A9n</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Björn_Kurtén</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bj%C3%B6rn_Kurt%C3%A9n</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix national de littérature
 Prix de l'information publique, 1970</t>
